--- a/DATA_goal/Junction_Flooding_158.xlsx
+++ b/DATA_goal/Junction_Flooding_158.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41590.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.28</v>
+        <v>2.23</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.74</v>
+        <v>2.27</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>117.35</v>
+        <v>11.74</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41590.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.11</v>
+        <v>2.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.7</v>
+        <v>5.07</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.8</v>
+        <v>4.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.22</v>
+        <v>6.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.22</v>
+        <v>2.82</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.01</v>
+        <v>1.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.27</v>
+        <v>1.83</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.77</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>270.8</v>
+        <v>27.08</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>51.04</v>
+        <v>5.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.03</v>
+        <v>3.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.04</v>
+        <v>3.4</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.4</v>
+        <v>2.14</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.27</v>
+        <v>6.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41590.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.56</v>
+        <v>2.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.59</v>
+        <v>5.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.9</v>
+        <v>4.19</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>72.84999999999999</v>
+        <v>7.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.69</v>
+        <v>2.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.65</v>
+        <v>2.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.09</v>
+        <v>2.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.32</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>275.39</v>
+        <v>27.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.96</v>
+        <v>5.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.81</v>
+        <v>3.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.75</v>
+        <v>3.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.77</v>
+        <v>2.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>66.26000000000001</v>
+        <v>6.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41590.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.12</v>
+        <v>3.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.17</v>
+        <v>2.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.65</v>
+        <v>4.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>163.22</v>
+        <v>16.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.41</v>
+        <v>3.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.46</v>
+        <v>2.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.46</v>
+        <v>4.25</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41590.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.27</v>
+        <v>3.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.88</v>
+        <v>2.79</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>48.55</v>
+        <v>4.85</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.48</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>180.38</v>
+        <v>18.04</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.49</v>
+        <v>3.45</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.12</v>
+        <v>2.31</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>23.68</v>
+        <v>2.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>44.03</v>
+        <v>4.4</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41590.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>37.61</v>
+        <v>3.76</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.02</v>
+        <v>5.3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.23</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>37.85</v>
+        <v>3.79</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.91</v>
+        <v>2.59</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.12</v>
+        <v>4.81</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41590.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.3</v>
+        <v>2.23</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>48.7</v>
+        <v>4.87</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>39.95</v>
+        <v>3.99</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.48</v>
+        <v>1.75</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>68.06</v>
+        <v>6.81</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.07</v>
+        <v>2.71</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.76</v>
+        <v>2.08</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.94</v>
+        <v>2.49</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>259.36</v>
+        <v>25.94</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>48.99</v>
+        <v>4.9</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.02</v>
+        <v>3.3</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.31</v>
+        <v>3.33</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.72</v>
+        <v>6.17</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41590.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>47.44</v>
+        <v>4.74</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>38.95</v>
+        <v>3.9</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>67.45999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>26.38</v>
+        <v>2.64</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>252.5</v>
+        <v>25.25</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>47.76</v>
+        <v>4.78</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>32.2</v>
+        <v>3.22</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>32.83</v>
+        <v>3.28</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>61.26</v>
+        <v>6.13</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41590.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>36.78</v>
+        <v>3.68</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30.17</v>
+        <v>3.02</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>53.51</v>
+        <v>5.35</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.44</v>
+        <v>2.04</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>194.12</v>
+        <v>19.41</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>37.06</v>
+        <v>3.71</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.85</v>
+        <v>2.58</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>48.61</v>
+        <v>4.86</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_158.xlsx
+++ b/DATA_goal/Junction_Flooding_158.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41590.34027777778</v>
+        <v>44839.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.76</v>
+        <v>1.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.27</v>
+        <v>6.32</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.26</v>
+        <v>2.91</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>1.24</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.68</v>
+        <v>1.92</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.86</v>
+        <v>1.99</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.99</v>
+        <v>2.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.82</v>
+        <v>1.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.1</v>
+        <v>2.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.76</v>
+        <v>1.56</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.21</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.28</v>
+        <v>3.13</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.67</v>
+        <v>1.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.72</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.95</v>
+        <v>2.07</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.02</v>
+        <v>5.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.97</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.95</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41590.34722222222</v>
+        <v>44839.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.31</v>
+        <v>1.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.07</v>
+        <v>2.76</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.08</v>
+        <v>2.29</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.72</v>
+        <v>4.21</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.82</v>
+        <v>1.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.68</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.18</v>
+        <v>1.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.58</v>
+        <v>1.43</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.08</v>
+        <v>14.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.1</v>
+        <v>2.85</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.4</v>
+        <v>1.89</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.4</v>
+        <v>1.98</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.83</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.14</v>
+        <v>1.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.13</v>
+        <v>3.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41590.35416666666</v>
+        <v>44839.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.36</v>
+        <v>0.19</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.76</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.84</v>
-      </c>
       <c r="H4" s="4" t="n">
-        <v>7.29</v>
+        <v>1.21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.87</v>
+        <v>0.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.09</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.06</v>
+        <v>0.15</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.21</v>
+        <v>0.15</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.63</v>
+        <v>0.21</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.54</v>
+        <v>1.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.2</v>
+        <v>0.46</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.71</v>
+        <v>0.14</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.48</v>
+        <v>0.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.16</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.57</v>
+        <v>0.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.18</v>
+        <v>0.15</v>
       </c>
       <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AF4" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.96</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>2.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41590.36111111111</v>
+        <v>44839.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.96</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.25</v>
+        <v>3.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41590.36805555555</v>
+        <v>44839.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.56</v>
+        <v>6.73</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.17</v>
+        <v>4.79</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.66</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.43</v>
+        <v>14.39</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.79</v>
+        <v>11.94</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.22</v>
+        <v>5.29</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.85</v>
+        <v>23.81</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.86</v>
+        <v>3.56</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.24</v>
+        <v>5.34</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.37</v>
+        <v>5.78</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.47</v>
+        <v>6.05</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.38</v>
+        <v>1.7</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.23</v>
+        <v>5.26</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.75</v>
+        <v>7.46</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.05</v>
+        <v>4.55</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.37</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>18.04</v>
+        <v>72.81</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.45</v>
+        <v>14.89</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.14</v>
+        <v>4.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.31</v>
+        <v>9.9</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.21</v>
+        <v>5.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.64</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.37</v>
+        <v>11.14</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.01</v>
+        <v>4.29</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.89</v>
+        <v>3.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.05</v>
+        <v>4.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.45</v>
+        <v>6.08</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.4</v>
+        <v>21.77</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.64</v>
+        <v>2.69</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41590.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41590.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>25.94</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41590.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41590.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41590.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>39.71</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>22.07</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>210.14</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>39.96</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>16.49</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_158.xlsx
+++ b/DATA_goal/Junction_Flooding_158.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44839.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.07</v>
+        <v>50.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.19</v>
+        <v>41.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.32</v>
+        <v>63.18</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>27.88</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.24</v>
+        <v>52.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.49</v>
+        <v>34.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.13</v>
+        <v>31.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.59</v>
+        <v>55.94</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44839.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.76</v>
+        <v>27.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.67</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.72</v>
+        <v>147.2</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.89</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.79</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44839.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K4" s="4" t="n">
+      <c r="T4" s="4" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44839.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.42</v>
+        <v>34.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.83</v>
+        <v>28.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.15</v>
+        <v>181.49</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.31</v>
+        <v>23.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.17</v>
+        <v>21.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.96</v>
+        <v>39.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_158.xlsx
+++ b/DATA_goal/Junction_Flooding_158.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44839.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.69</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.7</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.95</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.18</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.18</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.93</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.92</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.04</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.51</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.6</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.37</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.89</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.13</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.39</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.29</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.71</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.03</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.71</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.94</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44839.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.97</v>
+        <v>12.971</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.073</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.7</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.61</v>
+        <v>27.607</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.88</v>
+        <v>22.881</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.07</v>
+        <v>42.075</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.75</v>
+        <v>6.754</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.31</v>
+        <v>10.305</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>10.96</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.53</v>
+        <v>11.526</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.26</v>
+        <v>3.263</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.67</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.609</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.964</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>147.2</v>
+        <v>147.199</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.49</v>
+        <v>28.489</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.89</v>
+        <v>18.888</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.08</v>
+        <v>10.077</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.267</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>19.79</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.51</v>
+        <v>7.511</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.47</v>
+        <v>11.475</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.07</v>
+        <v>38.068</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.2</v>
+        <v>5.204</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.71</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44839.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.922</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.78</v>
+        <v>3.782</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.18</v>
+        <v>3.179</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.516</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.05</v>
+        <v>12.053</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.948</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>1.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.473</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.494</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.14</v>
+        <v>2.142</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.494</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.968</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.67</v>
+        <v>15.669</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>4.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.97</v>
+        <v>2.967</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.65</v>
+        <v>1.649</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.06</v>
+        <v>5.061</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.271</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.448</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>1.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.18</v>
+        <v>11.177</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44839.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_158.xlsx
+++ b/DATA_goal/Junction_Flooding_158.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44839.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.58</v>
+        <v>11.577</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.19</v>
+        <v>34.189</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.31</v>
+        <v>28.313</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.48</v>
+        <v>12.476</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.2</v>
+        <v>44.201</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.446999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.73</v>
+        <v>12.733</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.7</v>
+        <v>13.705</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.44</v>
+        <v>14.436</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.982</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.58</v>
+        <v>17.581</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.49</v>
+        <v>10.493</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.832</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.49</v>
+        <v>181.492</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.53</v>
+        <v>34.533</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>23.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.38</v>
+        <v>12.382</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.573</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.71</v>
+        <v>21.708</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.019</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.59</v>
+        <v>10.588</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.55</v>
+        <v>39.553</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.43</v>
+        <v>6.434</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44839.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.81</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_158.xlsx
+++ b/DATA_goal/Junction_Flooding_158.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44839.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.854</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.577</v>
+        <v>11.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.088</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.189</v>
+        <v>34.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.313</v>
+        <v>28.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.476</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.201</v>
+        <v>44.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.446999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.733</v>
+        <v>12.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.705</v>
+        <v>13.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.436</v>
+        <v>14.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.982</v>
+        <v>3.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.407</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.581</v>
+        <v>17.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.493</v>
+        <v>10.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.832</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.492</v>
+        <v>181.49</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.533</v>
+        <v>34.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>23.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.382</v>
+        <v>12.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.573</v>
+        <v>1.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.708</v>
+        <v>21.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.115</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.019</v>
+        <v>9.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.588</v>
+        <v>10.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.413</v>
+        <v>14.41</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.553</v>
+        <v>39.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.434</v>
+        <v>6.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44839.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.08</v>
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
